--- a/ASSIGNMENT_1/QuestionariUtenti_1.xlsx
+++ b/ASSIGNMENT_1/QuestionariUtenti_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UtenTe\OneDrive\Desktop\Proggetto_IUM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UtenTe\OneDrive\Desktop\Proggetto_IUM\FileProgetto\ASSIGNMENT_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6BA243-DD72-4465-A967-544E15996E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86C84F4-00D0-449B-8F18-CE4A4E32C224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
   <si>
     <t>Decision Making</t>
   </si>
@@ -109,18 +109,6 @@
     <t>Task</t>
   </si>
   <si>
-    <t>ISE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IKS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPC </t>
-  </si>
-  <si>
-    <t>IMOT</t>
-  </si>
-  <si>
     <t xml:space="preserve">T1 </t>
   </si>
   <si>
@@ -239,6 +227,12 @@
   </si>
   <si>
     <t>Quanto ti ritieni competente nel cancellare una prenotazione?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC </t>
   </si>
 </sst>
 </file>
@@ -248,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -342,6 +336,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -489,7 +489,7 @@
     <xf numFmtId="2" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -499,7 +499,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -812,7 +814,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>5</v>
@@ -820,12 +822,12 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>5</v>
@@ -838,20 +840,20 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>5</v>
@@ -866,7 +868,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>5</v>
@@ -874,7 +876,7 @@
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -901,12 +903,12 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -921,17 +923,17 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -963,7 +965,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>10</v>
@@ -986,7 +988,7 @@
     </row>
     <row r="2" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -1012,7 +1014,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -1039,10 +1041,10 @@
     </row>
     <row r="6" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -1058,7 +1060,7 @@
     </row>
     <row r="7" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -1084,7 +1086,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -1099,7 +1101,7 @@
     </row>
     <row r="10" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -1122,10 +1124,10 @@
     </row>
     <row r="12" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -1152,10 +1154,10 @@
     </row>
     <row r="14" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -1170,7 +1172,7 @@
     </row>
     <row r="15" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -1194,10 +1196,10 @@
     </row>
     <row r="17" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -1225,10 +1227,10 @@
     </row>
     <row r="19" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -1244,7 +1246,7 @@
     </row>
     <row r="20" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -1267,10 +1269,10 @@
     </row>
     <row r="22" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -1297,10 +1299,10 @@
     </row>
     <row r="24" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -1507,7 +1509,7 @@
     </row>
     <row r="2" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H2" s="17"/>
     </row>
@@ -1523,7 +1525,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>21</v>
@@ -1542,10 +1544,10 @@
     </row>
     <row r="6" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>21</v>
@@ -1556,7 +1558,7 @@
     </row>
     <row r="7" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H7" s="17"/>
     </row>
@@ -1572,7 +1574,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>21</v>
@@ -1583,7 +1585,7 @@
     </row>
     <row r="10" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H10" s="17"/>
     </row>
@@ -1596,10 +1598,10 @@
     </row>
     <row r="12" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>21</v>
@@ -1618,10 +1620,10 @@
     </row>
     <row r="14" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>21</v>
@@ -1632,7 +1634,7 @@
     </row>
     <row r="15" spans="1:9" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H15" s="17"/>
     </row>
@@ -1650,10 +1652,10 @@
     </row>
     <row r="17" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H17" s="17"/>
     </row>
@@ -1672,16 +1674,16 @@
     </row>
     <row r="19" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H20" s="17"/>
     </row>
@@ -1694,10 +1696,10 @@
     </row>
     <row r="22" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>21</v>
@@ -1715,10 +1717,10 @@
     </row>
     <row r="24" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>21</v>
@@ -1757,12 +1759,12 @@
         <v>15</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2" s="10"/>
     </row>
@@ -1785,7 +1787,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" s="10">
         <f>AVERAGE(Quest.Utente1!H4,Quest.Utente2!H4,)</f>
@@ -1808,10 +1810,10 @@
     </row>
     <row r="6" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <f>AVERAGE(Quest.Utente1!H6,Quest.Utente2!H6,)</f>
@@ -1820,7 +1822,7 @@
     </row>
     <row r="7" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -1842,7 +1844,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" s="10">
         <f>AVERAGE(Quest.Utente1!H9,Quest.Utente2!H9,)</f>
@@ -1851,7 +1853,7 @@
     </row>
     <row r="10" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="10"/>
     </row>
@@ -1871,10 +1873,10 @@
     </row>
     <row r="12" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C12" s="10">
         <f>AVERAGE(Quest.Utente1!H12,Quest.Utente2!H12,)</f>
@@ -1897,10 +1899,10 @@
     </row>
     <row r="14" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C14" s="10">
         <f>AVERAGE(Quest.Utente1!H14,Quest.Utente2!H14,)</f>
@@ -1909,7 +1911,7 @@
     </row>
     <row r="15" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C15" s="10"/>
     </row>
@@ -1928,10 +1930,10 @@
     </row>
     <row r="17" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C17" s="10">
         <f>AVERAGE(Quest.Utente1!H17,Quest.Utente2!H17,)</f>
@@ -1954,10 +1956,10 @@
     </row>
     <row r="19" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" s="10">
         <f>AVERAGE(Quest.Utente1!H19,Quest.Utente2!H19,)</f>
@@ -1966,7 +1968,7 @@
     </row>
     <row r="20" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20" s="10"/>
     </row>
@@ -1986,10 +1988,10 @@
     </row>
     <row r="22" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C22" s="10">
         <f>AVERAGE(Quest.Utente1!H22,Quest.Utente2!H22,)</f>
@@ -2012,10 +2014,10 @@
     </row>
     <row r="24" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C24" s="10">
         <f>AVERAGE(Quest.Utente1!H24,Quest.Utente2!H24,)</f>
@@ -2034,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2045,26 +2047,26 @@
     <col min="2" max="3" width="11.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="B2" s="15">
         <f>MEDIE!E3</f>
@@ -2077,62 +2079,61 @@
       <c r="D2" s="19"/>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <f>MEDIE!E8</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" s="15">
         <f>MEDIE!E11</f>
         <v>2</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="15">
         <f>MEDIE!E13</f>
         <v>2</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="E4" s="15">
+      <c r="E4" s="27">
         <f>MEDIE!E23</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="20">
+      <c r="C5" s="15">
         <f>MEDIE!E18</f>
         <v>2.5</v>
       </c>
       <c r="D5" s="16"/>
-      <c r="E5" s="20">
+      <c r="E5" s="15">
         <f>MEDIE!E16</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" s="19"/>
-      <c r="C6" s="20">
+      <c r="C6" s="15">
         <f>MEDIE!E21</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="27">
         <f>MEDIE!E23</f>
         <v>3</v>
       </c>
